--- a/model/Отчёт по моделированию.xlsx
+++ b/model/Отчёт по моделированию.xlsx
@@ -6,13 +6,13 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="Общая" sheetId="1" r:id="Rd9a6444029de48f8"/>
-    <x:sheet name="Имена" sheetId="2" r:id="R471407072575403c"/>
-    <x:sheet name="Блоки" sheetId="3" r:id="R1fb73cb2c8414a84"/>
-    <x:sheet name="Устройства" sheetId="4" r:id="R5500d830d9c448d1"/>
-    <x:sheet name="Очереди" sheetId="5" r:id="R1f11f1ce5c5743ef"/>
-    <x:sheet name="Тек. события" sheetId="6" r:id="Rea758d09719243c1"/>
-    <x:sheet name="Будущ. события" sheetId="7" r:id="R2e9915d66f704c8f"/>
+    <x:sheet name="Общая" sheetId="1" r:id="R4e57f7001b734605"/>
+    <x:sheet name="Имена" sheetId="2" r:id="R3a204155229649c3"/>
+    <x:sheet name="Блоки" sheetId="3" r:id="Rd1c2303ce3e34fc0"/>
+    <x:sheet name="Устройства" sheetId="4" r:id="R4219e6c3ac2f43ec"/>
+    <x:sheet name="Очереди" sheetId="5" r:id="Rf14c236a5528446a"/>
+    <x:sheet name="Тек. события" sheetId="6" r:id="Rf7f09bfa93d04cbc"/>
+    <x:sheet name="Будущ. события" sheetId="7" r:id="R25c3d10c1b824c04"/>
   </x:sheets>
 </x:workbook>
 </file>
